--- a/prueba_final/entitats/Sexe.xlsx
+++ b/prueba_final/entitats/Sexe.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27813"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/55.Sexe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{33746432-64B9-48C3-8BF5-84F4BCE6F5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1AC4ADC5-7727-4065-9A12-C098C1BE2141}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{33746432-64B9-48C3-8BF5-84F4BCE6F5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14958E62-47D1-4F3F-B624-6D928CA5D4B2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sexe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,47 +38,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>Nom entitat:</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
     <t>Codi</t>
   </si>
   <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>Dona</t>
   </si>
   <si>
-    <t>Home</t>
+    <t>98</t>
   </si>
   <si>
     <t>No consta</t>
   </si>
   <si>
-    <t>Altres</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>99</t>
   </si>
   <si>
-    <t>Sexe</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Nom entitat:</t>
+    <t>MODIFICADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,17 +162,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -553,61 +557,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -629,15 +634,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010005A3960399C2234EB92CC9686FF6F87F" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6b9fb4baab9ad9fbdda99e3f5c22fc21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3aff557-982a-455c-8bbc-92c71da94542" xmlns:ns3="857edd72-1fa1-43ec-b599-5660574b73e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="431e8fb1ae557487b3a709321472510d" ns2:_="" ns3:_="">
     <xsd:import namespace="f3aff557-982a-455c-8bbc-92c71da94542"/>
@@ -802,45 +798,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09C347C-572F-4F84-830A-4DB431E2DAA6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E09C347C-572F-4F84-830A-4DB431E2DAA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3aff557-982a-455c-8bbc-92c71da94542"/>
-    <ds:schemaRef ds:uri="857edd72-1fa1-43ec-b599-5660574b73e4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}"/>
 </file>